--- a/작업 일정.xlsx
+++ b/작업 일정.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>작업자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실제마감일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,22 @@
   </si>
   <si>
     <t>충돌 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aborted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 랭킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,23 +215,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,10 +278,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H18" totalsRowShown="0">
-  <autoFilter ref="A1:H18"/>
-  <sortState ref="A2:H18">
-    <sortCondition descending="1" ref="B1:B18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19"/>
+  <sortState ref="A2:H19">
+    <sortCondition descending="1" ref="B1:B19"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="작업자"/>
@@ -238,9 +289,9 @@
     <tableColumn id="3" name="중요도"/>
     <tableColumn id="4" name="작업"/>
     <tableColumn id="5" name="세부작업"/>
-    <tableColumn id="6" name="할당일" dataDxfId="1"/>
-    <tableColumn id="7" name="예상마감일" dataDxfId="0"/>
-    <tableColumn id="8" name="실제마감일"/>
+    <tableColumn id="6" name="할당일" dataDxfId="4"/>
+    <tableColumn id="7" name="예상마감일" dataDxfId="3"/>
+    <tableColumn id="8" name="종료일"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,20 +582,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="47.25" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="8" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -571,24 +620,24 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>41092</v>
@@ -602,19 +651,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>41092</v>
@@ -628,19 +677,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>41092</v>
@@ -654,19 +703,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>41094</v>
@@ -680,19 +729,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>41092</v>
@@ -706,19 +755,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>41092</v>
@@ -732,19 +781,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>41092</v>
@@ -755,19 +804,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
         <v>41094</v>
@@ -778,19 +827,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
         <v>41092</v>
@@ -801,19 +850,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>41092</v>
@@ -824,19 +873,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
       </c>
       <c r="F12" s="1">
         <v>41094</v>
@@ -847,19 +896,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1">
         <v>41094</v>
@@ -870,19 +919,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>41094</v>
@@ -893,19 +942,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>41094</v>
@@ -916,19 +965,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
         <v>41094</v>
@@ -937,21 +986,21 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
         <v>41094</v>
@@ -960,21 +1009,21 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
       </c>
       <c r="F18" s="1">
         <v>41094</v>
@@ -982,17 +1031,49 @@
       <c r="G18" s="1">
         <v>41099</v>
       </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1">
+        <v>41092</v>
+      </c>
+      <c r="G19" s="1">
+        <v>41099</v>
+      </c>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="completed">
+      <formula>NOT(ISERROR(SEARCH("completed",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="aborted">
+      <formula>NOT(ISERROR(SEARCH("aborted",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/작업 일정.xlsx
+++ b/작업 일정.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>작업자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,70 @@
   </si>
   <si>
     <t>온라인 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 처리 정확도 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향 센서 정확도 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 수학 라이브러리 (벡터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 유닛 디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,11 +289,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -254,34 +330,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H19" totalsRowShown="0">
-  <autoFilter ref="A1:H19"/>
-  <sortState ref="A2:H19">
-    <sortCondition descending="1" ref="B1:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H24" totalsRowShown="0">
+  <autoFilter ref="A1:H24"/>
+  <sortState ref="A2:H24">
+    <sortCondition descending="1" ref="B1:B24"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="작업자"/>
@@ -289,9 +347,9 @@
     <tableColumn id="3" name="중요도"/>
     <tableColumn id="4" name="작업"/>
     <tableColumn id="5" name="세부작업"/>
-    <tableColumn id="6" name="할당일" dataDxfId="4"/>
-    <tableColumn id="7" name="예상마감일" dataDxfId="3"/>
-    <tableColumn id="8" name="종료일"/>
+    <tableColumn id="6" name="할당일" dataDxfId="2"/>
+    <tableColumn id="7" name="예상마감일" dataDxfId="1"/>
+    <tableColumn id="8" name="종료일" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -582,9 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -628,25 +688,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1">
-        <v>41092</v>
+        <v>41094</v>
       </c>
       <c r="G2" s="1">
-        <v>41095</v>
+        <v>41103</v>
       </c>
       <c r="H2" s="1">
-        <v>41093</v>
+        <v>41099</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -657,13 +717,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>41092</v>
@@ -677,7 +737,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -686,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>41092</v>
@@ -698,12 +758,12 @@
         <v>41095</v>
       </c>
       <c r="H4" s="1">
-        <v>41092</v>
+        <v>41093</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -712,50 +772,50 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>41094</v>
+        <v>41092</v>
       </c>
       <c r="G5" s="1">
         <v>41095</v>
       </c>
       <c r="H5" s="1">
-        <v>41094</v>
+        <v>41092</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>41092</v>
+        <v>41094</v>
       </c>
       <c r="G6" s="1">
         <v>41095</v>
       </c>
       <c r="H6" s="1">
-        <v>41093</v>
+        <v>41094</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -767,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>41092</v>
@@ -784,22 +844,25 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>41092</v>
       </c>
       <c r="G8" s="1">
         <v>41095</v>
+      </c>
+      <c r="H8" s="1">
+        <v>41093</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -816,64 +879,73 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
-        <v>41094</v>
+        <v>41092</v>
       </c>
       <c r="G9" s="1">
-        <v>41101</v>
+        <v>41095</v>
+      </c>
+      <c r="H9" s="1">
+        <v>41102</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
-        <v>41092</v>
+        <v>41094</v>
       </c>
       <c r="G10" s="1">
-        <v>41095</v>
+        <v>41101</v>
+      </c>
+      <c r="H10" s="1">
+        <v>41102</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="1">
-        <v>41092</v>
+        <v>41101</v>
       </c>
       <c r="G11" s="1">
-        <v>41095</v>
+        <v>41105</v>
+      </c>
+      <c r="H11" s="3">
+        <v>41102</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -882,21 +954,22 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1">
-        <v>41094</v>
+        <v>41092</v>
       </c>
       <c r="G12" s="1">
-        <v>41099</v>
-      </c>
+        <v>41095</v>
+      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -905,16 +978,19 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
-        <v>41094</v>
+        <v>41092</v>
       </c>
       <c r="G13" s="1">
-        <v>41099</v>
+        <v>41095</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41096</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -928,33 +1004,34 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>41094</v>
       </c>
       <c r="G14" s="1">
-        <v>41103</v>
-      </c>
+        <v>41099</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1">
         <v>41094</v>
@@ -962,99 +1039,225 @@
       <c r="G15" s="1">
         <v>41099</v>
       </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1">
+        <v>41101</v>
+      </c>
+      <c r="G16" s="1">
+        <v>41105</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>41099</v>
+      </c>
+      <c r="G17" s="1">
+        <v>41105</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3">
+        <v>41101</v>
+      </c>
+      <c r="G18" s="3">
+        <v>41103</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1">
         <v>41094</v>
-      </c>
-      <c r="G16" s="1">
-        <v>41099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="1">
-        <v>41094</v>
-      </c>
-      <c r="G17" s="1">
-        <v>41099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1">
-        <v>41094</v>
-      </c>
-      <c r="G18" s="1">
-        <v>41099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="1">
-        <v>41092</v>
       </c>
       <c r="G19" s="1">
         <v>41099</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41094</v>
+      </c>
+      <c r="G20" s="1">
+        <v>41099</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1">
+        <v>41094</v>
+      </c>
+      <c r="G21" s="1">
+        <v>41099</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1">
+        <v>41094</v>
+      </c>
+      <c r="G22" s="1">
+        <v>41099</v>
+      </c>
+      <c r="H22" s="1">
+        <v>41099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1">
+        <v>41101</v>
+      </c>
+      <c r="G23" s="1">
+        <v>41105</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1">
+        <v>41092</v>
+      </c>
+      <c r="G24" s="1">
+        <v>41099</v>
+      </c>
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,11 +1272,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="completed">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="aborted">
+      <formula>NOT(ISERROR(SEARCH("aborted",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="completed">
       <formula>NOT(ISERROR(SEARCH("completed",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="aborted">
-      <formula>NOT(ISERROR(SEARCH("aborted",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
